--- a/Parcial2.xlsx
+++ b/Parcial2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Universidad_Panamerica\2026-1\Ecuaciones_Diferenciales_y_Metodos_Numericos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Universidad_Panamerica\2026-1\Ecuaciones_Diferenciales_y_Metodos_Numericos\Curso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C17560-1C82-4DD5-A7B1-C1F2EC5B2746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CF109D-5967-4EA2-A9FC-8600AD6F404C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9103" yWindow="2751" windowWidth="14400" windowHeight="7218" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8983" yWindow="634" windowWidth="18643" windowHeight="9995" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Runge-Kutta_Implicitos" sheetId="10" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="57">
   <si>
     <t>Apellido</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Final + Extra</t>
+  </si>
+  <si>
+    <t>Puntos Tareas</t>
   </si>
 </sst>
 </file>
@@ -353,16 +356,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -873,14 +876,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G10:G11"/>
@@ -893,6 +888,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1155,16 +1158,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
@@ -1180,6 +1173,16 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1516,20 +1519,14 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
@@ -1546,16 +1543,22 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1773,12 +1776,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
@@ -1788,6 +1785,12 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2057,16 +2060,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G10:G11"/>
@@ -2082,6 +2075,16 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2288,6 +2291,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
@@ -2303,11 +2311,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2566,31 +2569,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2598,13 +2601,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB8CB54-6D41-4464-A8D6-C426B6965A9D}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4:N5"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2616,9 +2619,10 @@
     <col min="9" max="9" width="29.765625" customWidth="1"/>
     <col min="10" max="10" width="19.84375" customWidth="1"/>
     <col min="11" max="11" width="15.53515625" customWidth="1"/>
+    <col min="15" max="15" width="12.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2661,8 +2665,11 @@
       <c r="N1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2693,7 +2700,7 @@
       <c r="J2" s="9">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <v>1</v>
       </c>
       <c r="L2">
@@ -2706,8 +2713,12 @@
       <c r="N2" s="10">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O2" s="10">
+        <f>SUM(D2:K3)/8*2</f>
+        <v>1.9791666666666674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2724,16 +2735,15 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3">
-        <v>1</v>
-      </c>
+      <c r="K3" s="9"/>
       <c r="L3">
         <v>1.25</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2764,7 +2774,7 @@
       <c r="J4" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>0</v>
       </c>
       <c r="L4">
@@ -2777,8 +2787,12 @@
       <c r="N4" s="10">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O4" s="10">
+        <f t="shared" ref="O4:O11" si="1">SUM(D4:K5)/8*2</f>
+        <v>1.2729166666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -2795,16 +2809,15 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5">
-        <v>0</v>
-      </c>
+      <c r="K5" s="9"/>
       <c r="L5">
         <v>0.83</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2835,21 +2848,25 @@
       <c r="J6" s="9">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="9">
         <v>1</v>
       </c>
       <c r="L6">
         <v>1.1066666666666667</v>
       </c>
       <c r="M6" s="10">
-        <f t="shared" ref="M6" si="1">(SUM(D6:J7)*0.65/8)+L6*0.35</f>
+        <f t="shared" ref="M6" si="2">(SUM(D6:J7)*0.65/8)+L6*0.35</f>
         <v>0.92222916666666666</v>
       </c>
       <c r="N6" s="10">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O6" s="10">
+        <f t="shared" ref="O6:O11" si="3">SUM(D6:K7)/8*2</f>
+        <v>1.8958333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2866,16 +2883,15 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7">
-        <v>1</v>
-      </c>
+      <c r="K7" s="9"/>
       <c r="L7">
         <v>1.1066666666666667</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2906,21 +2922,25 @@
       <c r="J8" s="9">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="9">
         <v>1</v>
       </c>
       <c r="L8">
         <v>1.1666666666666667</v>
       </c>
       <c r="M8" s="10">
-        <f t="shared" ref="M8" si="2">(SUM(D8:J9)*0.65/8)+L8*0.35</f>
+        <f t="shared" ref="M8" si="4">(SUM(D8:J9)*0.65/8)+L8*0.35</f>
         <v>0.99062500000000009</v>
       </c>
       <c r="N8" s="10">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O8" s="10">
+        <f t="shared" ref="O8:O11" si="5">SUM(D8:K9)/8*2</f>
+        <v>2.041666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -2937,16 +2957,15 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9">
-        <v>1</v>
-      </c>
+      <c r="K9" s="9"/>
       <c r="L9">
         <v>1.1666666666666667</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2977,21 +2996,25 @@
       <c r="J10" s="9">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="9">
         <v>1</v>
       </c>
       <c r="L10">
         <v>0.95</v>
       </c>
       <c r="M10" s="10">
-        <f t="shared" ref="M10" si="3">(SUM(D10:J11)*0.65/8)+L10*0.35</f>
+        <f t="shared" ref="M10" si="6">(SUM(D10:J11)*0.65/8)+L10*0.35</f>
         <v>0.91479166666666667</v>
       </c>
       <c r="N10" s="10">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O10" s="10">
+        <f t="shared" ref="O10:O11" si="7">SUM(D10:K11)/8*2</f>
+        <v>2.041666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -3008,65 +3031,74 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11">
-        <v>1</v>
-      </c>
+      <c r="K11" s="9"/>
       <c r="L11">
         <v>0.95</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O11" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K15" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="55">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3191,45 +3223,45 @@
       <c r="C3" s="3">
         <v>263902</v>
       </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3" s="13">
-        <v>1</v>
-      </c>
-      <c r="N3" s="11">
-        <v>1</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="12">
+        <v>1</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="9">
         <f>((SUM(D3:G4)/4)+(SUM(H3:L4)/5)+(SUM(M3:R4)/6))/2</f>
         <v>1.25</v>
@@ -3245,21 +3277,21 @@
       <c r="C4" s="6">
         <v>269101</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
@@ -3272,39 +3304,39 @@
       <c r="C5" s="3">
         <v>267980</v>
       </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
         <v>0.7</v>
       </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
         <v>0.8</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>0.4</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <v>0.4</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
       <c r="S5" s="9">
         <f>((SUM(D5:G6)/4)+(SUM(H5:L6)/5)+(SUM(M5:R6)/6))/2</f>
         <v>0.83</v>
@@ -3320,21 +3352,21 @@
       <c r="C6" s="6">
         <v>240221</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
@@ -3347,49 +3379,49 @@
       <c r="C7" s="3">
         <v>269225</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>0.8</v>
       </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
         <v>0</v>
       </c>
-      <c r="H7" s="13">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
         <v>0.9</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="12">
         <v>0.2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="12">
         <v>0.8</v>
       </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="13">
-        <v>1</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
         <v>0.5</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="12">
         <v>0.2</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="12">
         <v>0.7</v>
       </c>
-      <c r="Q7" s="11">
-        <v>1</v>
-      </c>
-      <c r="R7" s="12">
+      <c r="Q7" s="12">
+        <v>1</v>
+      </c>
+      <c r="R7" s="14">
         <v>1</v>
       </c>
       <c r="S7" s="9">
@@ -3407,21 +3439,21 @@
       <c r="C8" s="6">
         <v>266532</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="14"/>
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
@@ -3434,43 +3466,43 @@
       <c r="C9" s="3">
         <v>267689</v>
       </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11">
-        <v>1</v>
-      </c>
-      <c r="M9" s="13">
-        <v>1</v>
-      </c>
-      <c r="N9" s="11">
-        <v>1</v>
-      </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12"/>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="9">
         <f t="shared" ref="S9" si="1">((SUM(D9:G10)/4)+(SUM(H9:L10)/5)+(SUM(M9:R10)/6))/2</f>
         <v>1.1666666666666667</v>
@@ -3486,21 +3518,21 @@
       <c r="C10" s="6">
         <v>234727</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="14"/>
       <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
@@ -3513,39 +3545,39 @@
       <c r="C11" s="3">
         <v>261343</v>
       </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
         <v>0.5</v>
       </c>
-      <c r="J11" s="11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12"/>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="14"/>
       <c r="S11" s="9">
         <f t="shared" ref="S11" si="2">((SUM(D11:G12)/4)+(SUM(H11:L12)/5)+(SUM(M11:R12)/6))/2</f>
         <v>0.95</v>
@@ -3561,30 +3593,87 @@
       <c r="C12" s="6">
         <v>269112</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="14"/>
       <c r="S12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -3601,68 +3690,11 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
